--- a/material/Week5-Tradeoffs/Week5-Example.xlsx
+++ b/material/Week5-Tradeoffs/Week5-Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailmissouri-my.sharepoint.com/personal/btdhd_umsystem_edu/Documents/Desktop/NATR_8001_DecisionAnalysis_Fall25_Mizzou/material/Week5-Tradeoffs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="8_{49D42CAC-7810-4DF8-B33D-971DD84FA8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{654C3A84-6A1C-482C-8AE0-629049257FB4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D29175F8-3651-40AF-B879-86945535E412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F66CC36D-5062-44A5-B3D3-9CA43CC2A723}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F66CC36D-5062-44A5-B3D3-9CA43CC2A723}"/>
   </bookViews>
   <sheets>
     <sheet name="SMART" sheetId="3" r:id="rId1"/>
@@ -606,7 +606,7 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -646,17 +646,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
@@ -777,8 +768,16 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1240,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3794783-58DF-4EEC-8722-64AE62CE8AAE}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1255,14 +1254,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="3" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
@@ -1494,9 +1493,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DF8F30-FC4E-405E-9C80-A9C59800A977}">
-  <dimension ref="B1:Q19"/>
+  <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -1508,517 +1507,516 @@
     <col min="6" max="7" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="2:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-    </row>
-    <row r="2" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B3" s="35" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+    </row>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37" t="s">
+      <c r="G3" s="88"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="38"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="38">
         <v>1</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="38">
         <v>2</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="38">
         <v>3</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="38">
         <v>4</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="38">
         <v>5</v>
       </c>
-      <c r="O4" s="42">
+      <c r="O4" s="39">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="39"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-    </row>
-    <row r="6" spans="2:17" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="45">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" s="36"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
+    </row>
+    <row r="6" spans="2:16" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="42">
         <v>1</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="45">
         <v>0.88</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="46">
         <f>MIN('[1]Consequence Table'!$G$7:$G$29)</f>
         <v>0.67967730957031247</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="78">
+      <c r="H6" s="47"/>
+      <c r="I6" s="75">
         <f>F6</f>
         <v>0.88</v>
       </c>
-      <c r="J6" s="83">
+      <c r="J6" s="80">
         <f>$G6</f>
         <v>0.67967730957031247</v>
       </c>
-      <c r="K6" s="51">
-        <f>$F6</f>
+      <c r="K6" s="48">
+        <f t="shared" ref="K6:O8" si="0">$F6</f>
         <v>0.88</v>
       </c>
-      <c r="L6" s="51">
-        <f>$F6</f>
+      <c r="L6" s="48">
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="M6" s="51">
-        <f>$F6</f>
+      <c r="M6" s="48">
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="N6" s="51">
-        <f>$F6</f>
+      <c r="N6" s="48">
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="O6" s="52">
-        <f>$F6</f>
+      <c r="O6" s="49">
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="45">
+    <row r="7" spans="2:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="42">
         <v>2</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="48">
         <v>1</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="48">
         <v>0.61</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="78">
-        <f t="shared" ref="I6:I11" si="0">F7</f>
+      <c r="H7" s="47"/>
+      <c r="I7" s="75">
+        <f t="shared" ref="I7:I11" si="1">F7</f>
         <v>1</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="48">
         <f>$F7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="83">
-        <f>$F7</f>
+      <c r="K7" s="80">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L7" s="51">
-        <f>$F7</f>
+      <c r="L7" s="48">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M7" s="51">
-        <f>$F7</f>
+      <c r="M7" s="48">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N7" s="51">
-        <f>$F7</f>
+      <c r="N7" s="48">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O7" s="52">
-        <f>$F7</f>
+      <c r="O7" s="49">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="45">
+    <row r="8" spans="2:16" ht="68.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="42">
         <v>3</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="51">
         <v>0.06</v>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="51">
         <v>0.03</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="79">
+      <c r="H8" s="52"/>
+      <c r="I8" s="76">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="J8" s="51">
+        <f>$F8</f>
+        <v>0.06</v>
+      </c>
+      <c r="K8" s="51">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="J8" s="54">
-        <f>$F8</f>
+      <c r="L8" s="81">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="K8" s="54">
-        <f>$F8</f>
+      <c r="M8" s="51">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="L8" s="84">
-        <f>$F8</f>
+      <c r="N8" s="51">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="M8" s="54">
-        <f>$F8</f>
+      <c r="O8" s="53">
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="N8" s="54">
-        <f>$F8</f>
-        <v>0.06</v>
-      </c>
-      <c r="O8" s="56">
-        <f>$F8</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="45">
+    </row>
+    <row r="9" spans="2:16" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="42">
         <v>4</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="54">
         <v>3</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="54">
         <v>0</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="80">
-        <f t="shared" si="0"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="77">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="55">
         <f>$F9</f>
         <v>3</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="55">
         <f>$F9</f>
         <v>3</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="55">
         <f>$F9</f>
         <v>3</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="82">
         <f>G9</f>
         <v>0</v>
       </c>
-      <c r="N9" s="58">
+      <c r="N9" s="55">
         <f>$F9</f>
         <v>3</v>
       </c>
-      <c r="O9" s="58">
+      <c r="O9" s="55">
         <f>$F9</f>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="64" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="45">
+    <row r="10" spans="2:16" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="42">
         <v>5</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="56">
         <v>23348</v>
       </c>
-      <c r="G10" s="59">
+      <c r="G10" s="56">
         <v>448</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="81">
-        <f t="shared" si="0"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="78">
+        <f t="shared" si="1"/>
         <v>23348</v>
       </c>
-      <c r="J10" s="59">
+      <c r="J10" s="56">
         <f>$F10</f>
         <v>23348</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="56">
         <f>$F10</f>
         <v>23348</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="56">
         <f>$F10</f>
         <v>23348</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="56">
         <f>$F10</f>
         <v>23348</v>
       </c>
-      <c r="N10" s="86">
+      <c r="N10" s="83">
         <f>$F10</f>
         <v>23348</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="57">
         <f>$F10</f>
         <v>23348</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="71" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="45">
+    <row r="11" spans="2:16" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="42">
         <v>6</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="58">
         <v>1.5</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="58">
         <v>2</v>
       </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="82">
-        <f t="shared" si="0"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="79">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J11" s="63">
+      <c r="J11" s="60">
         <f>$F$11</f>
         <v>1.5</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="60">
         <f>$F$11</f>
         <v>1.5</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="60">
         <f>$F$11</f>
         <v>1.5</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="60">
         <f>$F$11</f>
         <v>1.5</v>
       </c>
-      <c r="N11" s="63">
+      <c r="N11" s="60">
         <f>$F$11</f>
         <v>1.5</v>
       </c>
-      <c r="O11" s="87">
+      <c r="O11" s="84">
         <f>G11</f>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="67"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="68"/>
-      <c r="C13" s="36" t="s">
+    <row r="12" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="64"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="65"/>
+      <c r="C13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69">
+      <c r="E13" s="34"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66">
         <v>7</v>
       </c>
-      <c r="J13" s="74">
+      <c r="J13" s="71">
         <v>1</v>
       </c>
-      <c r="K13" s="74">
+      <c r="K13" s="71">
         <v>2</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="71">
         <v>3</v>
       </c>
-      <c r="M13" s="74">
+      <c r="M13" s="71">
         <v>4</v>
       </c>
-      <c r="N13" s="74">
+      <c r="N13" s="71">
         <v>5</v>
       </c>
-      <c r="O13" s="75">
+      <c r="O13" s="72">
         <v>6</v>
       </c>
       <c r="P13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="39"/>
-      <c r="C14" s="43" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="36"/>
+      <c r="C14" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70">
+      <c r="E14" s="40"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67">
         <v>0</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="73">
         <v>10</v>
       </c>
-      <c r="K14" s="76">
+      <c r="K14" s="73">
         <v>15</v>
       </c>
-      <c r="L14" s="76">
+      <c r="L14" s="73">
         <v>40</v>
       </c>
-      <c r="M14" s="76">
+      <c r="M14" s="73">
         <v>55</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="73">
         <v>70</v>
       </c>
-      <c r="O14" s="77">
+      <c r="O14" s="74">
         <v>80</v>
       </c>
       <c r="P14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="71"/>
-      <c r="C15" s="72" t="s">
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="68"/>
+      <c r="C15" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="72">
-        <f>J14/SUM($J14:$O14)</f>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="69">
+        <f t="shared" ref="J15:O15" si="2">J14/SUM($J14:$O14)</f>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="K15" s="72">
-        <f>K14/SUM($J14:$O14)</f>
+      <c r="K15" s="69">
+        <f t="shared" si="2"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="L15" s="72">
-        <f>L14/SUM($J14:$O14)</f>
+      <c r="L15" s="69">
+        <f t="shared" si="2"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="M15" s="72">
-        <f>M14/SUM($J14:$O14)</f>
+      <c r="M15" s="69">
+        <f t="shared" si="2"/>
         <v>0.20370370370370369</v>
       </c>
-      <c r="N15" s="72">
-        <f>N14/SUM($J14:$O14)</f>
+      <c r="N15" s="69">
+        <f t="shared" si="2"/>
         <v>0.25925925925925924</v>
       </c>
-      <c r="O15" s="72">
-        <f>O14/SUM($J14:$O14)</f>
+      <c r="O15" s="69">
+        <f t="shared" si="2"/>
         <v>0.29629629629629628</v>
       </c>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="89"/>
+      <c r="P15" s="85"/>
     </row>
     <row r="19" spans="2:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1" t="s">
@@ -2036,12 +2034,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2229,15 +2224,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C95CB388-DE46-4A79-87AB-C63D21BBD685}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E52CFB2-9C80-4C1C-97AE-780FBEE1D2A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="28324b92-992e-46b6-a027-758a031036b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2261,17 +2267,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E52CFB2-9C80-4C1C-97AE-780FBEE1D2A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C95CB388-DE46-4A79-87AB-C63D21BBD685}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="28324b92-992e-46b6-a027-758a031036b2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>